--- a/総合テスト/5. シナリオテスト（ユーザー）/ST-SC-007.xlsx
+++ b/総合テスト/5. シナリオテスト（ユーザー）/ST-SC-007.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisuke.shimada\Documents\teamF\総合テスト\5. シナリオテスト（ユーザー）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11679596-4B19-4DEF-9A13-BB1F2C432CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D416EC32-218B-4669-992F-2725B00D1FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="8170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1-1" sheetId="1" r:id="rId1"/>
-    <sheet name="1-2" sheetId="2" r:id="rId2"/>
-    <sheet name="1-3" sheetId="3" r:id="rId3"/>
-    <sheet name="1-4" sheetId="4" r:id="rId4"/>
-    <sheet name="1-5" sheetId="5" r:id="rId5"/>
-    <sheet name="1-6" sheetId="6" r:id="rId6"/>
-    <sheet name="1-7" sheetId="7" r:id="rId7"/>
-    <sheet name="1-8" sheetId="8" r:id="rId8"/>
-    <sheet name="1-9" sheetId="9" r:id="rId9"/>
+    <sheet name="DB操作前" sheetId="10" r:id="rId1"/>
+    <sheet name="DB操作後" sheetId="12" r:id="rId2"/>
+    <sheet name="1-1" sheetId="1" r:id="rId3"/>
+    <sheet name="1-2" sheetId="2" r:id="rId4"/>
+    <sheet name="1-3" sheetId="3" r:id="rId5"/>
+    <sheet name="1-4" sheetId="4" r:id="rId6"/>
+    <sheet name="1-5" sheetId="5" r:id="rId7"/>
+    <sheet name="1-6" sheetId="6" r:id="rId8"/>
+    <sheet name="1-7" sheetId="7" r:id="rId9"/>
+    <sheet name="1-8" sheetId="8" r:id="rId10"/>
+    <sheet name="1-9" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -91,6 +93,363 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12116423" cy="3854648"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D095EA-7084-4015-AF3F-34FD3A76486A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12116423" cy="3854648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11983066" cy="3264068"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9D294E-66EA-4606-B7D1-729D7089F19E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4114800"/>
+          <a:ext cx="11983066" cy="3264068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12141824" cy="5131064"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3BAD597-E576-4DF7-98A0-0F3D62D114B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7543800"/>
+          <a:ext cx="12141824" cy="5131064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254624</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5120B799-C284-4E8C-BC7E-1086119365B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12141824" cy="6420180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254624</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6A325B-5F94-3208-6921-A39FF6373C30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12141824" cy="6401129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>235573</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38302</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DEE497F-AD98-4657-A97C-3A1372D0FFC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12122773" cy="3924502"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>235573</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>82766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75719B76-4F18-46FC-9E6A-5E63D5A116F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4114800"/>
+          <a:ext cx="12122773" cy="4197566"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>216522</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>178056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{656FB8D4-A821-450C-A5AC-CE652AD54CE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8458200"/>
+          <a:ext cx="12103722" cy="4978656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -138,7 +497,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -187,7 +546,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -236,7 +595,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -285,7 +644,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -334,7 +693,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -383,7 +742,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -421,104 +780,6 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="12154525" cy="6420180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>254624</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19380</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5120B799-C284-4E8C-BC7E-1086119365B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12141824" cy="6420180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>254624</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>329</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6A325B-5F94-3208-6921-A39FF6373C30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12141824" cy="6401129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -792,6 +1053,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A386F5-43A3-49EF-B3AF-4575D9BCA200}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBCF563-7339-4DEE-9FB0-67A02C54C009}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04ED9457-2490-4BC4-9723-4B88D81D2BBF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C6EA9A-796A-49B5-8804-87AFA3DF0FAE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -805,7 +1126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5755536-0878-445A-A3B3-EFDB8AC79705}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -819,7 +1140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8308C11C-AF0E-4264-AFEE-136546287790}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -833,7 +1154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CF7BB9-882C-499F-815F-FFF5341235EA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -847,7 +1168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02190B56-A257-4BC7-A76E-4EFF06BE27CE}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -861,7 +1182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A7D7E5-5291-430D-BF6A-33D6769B940F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -875,7 +1196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046FB7F0-E8A2-4690-A942-F834E8BCBEE7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -887,32 +1208,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBCF563-7339-4DEE-9FB0-67A02C54C009}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04ED9457-2490-4BC4-9723-4B88D81D2BBF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>